--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H2">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I2">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J2">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N2">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O2">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P2">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q2">
-        <v>0.1244329257472222</v>
+        <v>1.851721326239555</v>
       </c>
       <c r="R2">
-        <v>1.119896331725</v>
+        <v>16.665491936156</v>
       </c>
       <c r="S2">
-        <v>0.003625421644986748</v>
+        <v>0.02898158950453423</v>
       </c>
       <c r="T2">
-        <v>0.003625421644986749</v>
+        <v>0.02898158950453423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H3">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I3">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J3">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N3">
         <v>10.452205</v>
       </c>
       <c r="O3">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P3">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q3">
-        <v>1.096813745236111</v>
+        <v>5.784670657912222</v>
       </c>
       <c r="R3">
-        <v>9.871323707125001</v>
+        <v>52.06203592121</v>
       </c>
       <c r="S3">
-        <v>0.03195627096782899</v>
+        <v>0.09053681461183721</v>
       </c>
       <c r="T3">
-        <v>0.031956270967829</v>
+        <v>0.09053681461183721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H4">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I4">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J4">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N4">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O4">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P4">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q4">
-        <v>3.643616519858333</v>
+        <v>13.32030940304867</v>
       </c>
       <c r="R4">
-        <v>32.792548678725</v>
+        <v>119.882784627438</v>
       </c>
       <c r="S4">
-        <v>0.1061587688130091</v>
+        <v>0.2084783135141156</v>
       </c>
       <c r="T4">
-        <v>0.1061587688130091</v>
+        <v>0.2084783135141155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H5">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I5">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J5">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N5">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O5">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P5">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q5">
-        <v>0.1729212792888889</v>
+        <v>0.3992097148542222</v>
       </c>
       <c r="R5">
-        <v>1.5562915136</v>
+        <v>3.592887433688</v>
       </c>
       <c r="S5">
-        <v>0.00503815646098582</v>
+        <v>0.006248095714068838</v>
       </c>
       <c r="T5">
-        <v>0.005038156460985821</v>
+        <v>0.006248095714068837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.318244</v>
       </c>
       <c r="I6">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J6">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N6">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O6">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P6">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q6">
-        <v>0.04193030894088889</v>
+        <v>0.1183103187191111</v>
       </c>
       <c r="R6">
-        <v>0.3773727804679999</v>
+        <v>1.064792868472</v>
       </c>
       <c r="S6">
-        <v>0.001221662584098433</v>
+        <v>0.001851693903764171</v>
       </c>
       <c r="T6">
-        <v>0.001221662584098433</v>
+        <v>0.001851693903764171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.318244</v>
       </c>
       <c r="I7">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J7">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N7">
         <v>10.452205</v>
       </c>
       <c r="O7">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P7">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q7">
-        <v>0.3695946142244444</v>
+        <v>0.3695946142244445</v>
       </c>
       <c r="R7">
         <v>3.32635152802</v>
       </c>
       <c r="S7">
-        <v>0.01076834211068721</v>
+        <v>0.005784584991680227</v>
       </c>
       <c r="T7">
-        <v>0.01076834211068721</v>
+        <v>0.005784584991680227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.318244</v>
       </c>
       <c r="I8">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J8">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N8">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O8">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P8">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q8">
-        <v>1.227793732425333</v>
+        <v>0.8510622136173335</v>
       </c>
       <c r="R8">
-        <v>11.050143591828</v>
+        <v>7.659559922556</v>
       </c>
       <c r="S8">
-        <v>0.03577244484435213</v>
+        <v>0.0133201121401822</v>
       </c>
       <c r="T8">
-        <v>0.03577244484435213</v>
+        <v>0.0133201121401822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.318244</v>
       </c>
       <c r="I9">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J9">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N9">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O9">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P9">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q9">
-        <v>0.05826948630755555</v>
+        <v>0.02550633722844445</v>
       </c>
       <c r="R9">
-        <v>0.5244253767679999</v>
+        <v>0.229557035056</v>
       </c>
       <c r="S9">
-        <v>0.001697713492093042</v>
+        <v>0.0003992038028854915</v>
       </c>
       <c r="T9">
-        <v>0.001697713492093042</v>
+        <v>0.0003992038028854915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H10">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I10">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J10">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N10">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O10">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P10">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q10">
-        <v>0.4837482577439999</v>
+        <v>3.466298205514001</v>
       </c>
       <c r="R10">
-        <v>4.353734319696</v>
+        <v>31.196683849626</v>
       </c>
       <c r="S10">
-        <v>0.01409427122136825</v>
+        <v>0.05425159297404675</v>
       </c>
       <c r="T10">
-        <v>0.01409427122136824</v>
+        <v>0.05425159297404673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H11">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I11">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J11">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N11">
         <v>10.452205</v>
       </c>
       <c r="O11">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P11">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q11">
-        <v>4.26399793416</v>
+        <v>10.828515736615</v>
       </c>
       <c r="R11">
-        <v>38.37598140744</v>
+        <v>97.456641629535</v>
       </c>
       <c r="S11">
-        <v>0.1242339221058421</v>
+        <v>0.1694788484503124</v>
       </c>
       <c r="T11">
-        <v>0.1242339221058421</v>
+        <v>0.1694788484503124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H12">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I12">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J12">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N12">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O12">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P12">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q12">
-        <v>14.165006028624</v>
+        <v>24.934726368597</v>
       </c>
       <c r="R12">
-        <v>127.485054257616</v>
+        <v>224.412537317373</v>
       </c>
       <c r="S12">
-        <v>0.4127052317476159</v>
+        <v>0.390257429010717</v>
       </c>
       <c r="T12">
-        <v>0.4127052317476158</v>
+        <v>0.3902574290107169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H13">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I13">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J13">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N13">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O13">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P13">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q13">
-        <v>0.6722526781439999</v>
+        <v>0.7472938279720002</v>
       </c>
       <c r="R13">
-        <v>6.050274103295999</v>
+        <v>6.725644451748002</v>
       </c>
       <c r="S13">
-        <v>0.01958645105873816</v>
+        <v>0.01169601637927817</v>
       </c>
       <c r="T13">
-        <v>0.01958645105873816</v>
+        <v>0.01169601637927816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H14">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I14">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J14">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N14">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O14">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P14">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q14">
-        <v>0.1976477216734445</v>
+        <v>0.1036852890613333</v>
       </c>
       <c r="R14">
-        <v>1.778829495061</v>
+        <v>0.9331676015520001</v>
       </c>
       <c r="S14">
-        <v>0.005758574942558707</v>
+        <v>0.001622795202848891</v>
       </c>
       <c r="T14">
-        <v>0.005758574942558706</v>
+        <v>0.00162279520284889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H15">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I15">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J15">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N15">
         <v>10.452205</v>
       </c>
       <c r="O15">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P15">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q15">
-        <v>1.742165399907222</v>
+        <v>0.3239068648133334</v>
       </c>
       <c r="R15">
-        <v>15.679488599165</v>
+        <v>2.91516178332</v>
       </c>
       <c r="S15">
-        <v>0.05075894593044748</v>
+        <v>0.005069518647702964</v>
       </c>
       <c r="T15">
-        <v>0.05075894593044748</v>
+        <v>0.005069518647702964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H16">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I16">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J16">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N16">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O16">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P16">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q16">
-        <v>5.787475456975667</v>
+        <v>0.7458574415440001</v>
       </c>
       <c r="R16">
-        <v>52.087279112781</v>
+        <v>6.712716973896001</v>
       </c>
       <c r="S16">
-        <v>0.168621276607872</v>
+        <v>0.01167353526333686</v>
       </c>
       <c r="T16">
-        <v>0.168621276607872</v>
+        <v>0.01167353526333686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H17">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I17">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J17">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N17">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O17">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P17">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q17">
-        <v>0.2746660232817778</v>
+        <v>0.02235334987733334</v>
       </c>
       <c r="R17">
-        <v>2.471994209536</v>
+        <v>0.2011801488960001</v>
       </c>
       <c r="S17">
-        <v>0.008002545467516026</v>
+        <v>0.0003498558886891037</v>
       </c>
       <c r="T17">
-        <v>0.008002545467516026</v>
+        <v>0.0003498558886891037</v>
       </c>
     </row>
   </sheetData>
